--- a/downloaded_files/GENS236_Lecture-35047.xlsx
+++ b/downloaded_files/GENS236_Lecture-35047.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك محمد السيد عبد الفتاح زيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak Mohamed Elsayed Abdelfattah Zeid</x:t>
   </x:si>
   <x:si>
     <x:t>1200293</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45921.5535715278</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.7157357292</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45907.7157357292</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.933544213</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.9342146991</x:v>
+        <x:v>45914.933544213</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45914.9342146991</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS236_Lecture-35047.xlsx
+++ b/downloaded_files/GENS236_Lecture-35047.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,6 +69,15 @@
     <x:t>Ahmed Mohamed Assem Taher</x:t>
   </x:si>
   <x:si>
+    <x:t>2240005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد محمد عبدالرحيم حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED MOHAMED MOHAMED ABDELRREHEM</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230165</x:t>
   </x:si>
   <x:si>
@@ -213,6 +222,24 @@
     <x:t>Maya Ahmed Reda</x:t>
   </x:si>
   <x:si>
+    <x:t>1230111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد يسري محمد ابوالعنين جوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Yousry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود مصطفى سيد امين سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230253</x:t>
   </x:si>
   <x:si>
@@ -222,6 +249,24 @@
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1200276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى محمد سعيد ابراهيم عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mostafa mohamed saied ibrahim omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معتز محمد صبرى عبد العزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moataz mohamed sabry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230117</x:t>
   </x:si>
   <x:si>
@@ -274,6 +319,15 @@
   </x:si>
   <x:si>
     <x:t>youssef essam abdel monaem ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف فرج حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Farag</x:t>
   </x:si>
   <x:si>
     <x:t>1220213</x:t>
@@ -398,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -707,7 +761,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.620625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.450625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -917,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4269185532</x:v>
+        <x:v>45927.569999456</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.8015656597</x:v>
+        <x:v>45907.4269185532</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45906.8015656597</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.9308384259</x:v>
+        <x:v>45912.3425466782</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9344383102</x:v>
+        <x:v>45914.9308384259</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4205185995</x:v>
+        <x:v>45914.9344383102</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45907.4205185995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4146327546</x:v>
+        <x:v>45907.414672338</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45907.4146327546</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4206720718</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45907.4206720718</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.932571331</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45914.932571331</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4148226852</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45917.325065162</x:v>
+        <x:v>45907.4148226852</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.5535715278</x:v>
+        <x:v>45927.4158784722</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45927.4150790162</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.7157357292</x:v>
+        <x:v>45917.325065162</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45927.549187963</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45927.5875860764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.933544213</x:v>
+        <x:v>45921.5535715278</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.9342146991</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1671,6 +1725,198 @@
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
     </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.7157357292</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45906.4496525116</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.4150437153</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45914.933544213</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45927.4231611921</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45914.9342146991</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1683,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Service Management (GENS236) Location : [20107]20107-45-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS236_Lecture-35047.xlsx
+++ b/downloaded_files/GENS236_Lecture-35047.xlsx
@@ -971,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.569999456</x:v>
+        <x:v>45928.4206846065</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>

--- a/downloaded_files/GENS236_Lecture-35047.xlsx
+++ b/downloaded_files/GENS236_Lecture-35047.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Ahmed Mohamed Assem Taher</x:t>
   </x:si>
   <x:si>
-    <x:t>2240005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد محمد عبدالرحيم حسنين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AHMED MOHAMED MOHAMED ABDELRREHEM</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230165</x:t>
   </x:si>
   <x:si>
@@ -87,15 +78,6 @@
     <x:t>AYA AHMED</x:t>
   </x:si>
   <x:si>
-    <x:t>4220108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بسملة خالد عبدالفتاح محمد جلال</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200138</x:t>
   </x:si>
   <x:si>
@@ -249,6 +231,15 @@
     <x:t>Marwan Karim Mohamed Ahmed Zayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي محمد حسن محمد حلمي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moustafa Mohamed Hassan Mohamed Helmy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200276</x:t>
   </x:si>
   <x:si>
@@ -276,6 +267,15 @@
     <x:t>Malak Mohamed Elsayed Abdelfattah Zeid</x:t>
   </x:si>
   <x:si>
+    <x:t>1230119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ناتالى تامر محمد سمير عبده احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nataly Tamer Mohamed Samir Abdou</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200293</x:t>
   </x:si>
   <x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>nancy mohamed hassan mobarak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور احمد شمس الدين محمد سالم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Ahmed Shamseldin Mohamed Salem</x:t>
   </x:si>
   <x:si>
     <x:t>1230335</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -761,7 +770,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.450625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="41.040625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -971,7 +980,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.4206846065</x:v>
+        <x:v>45907.4269185532</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1003,7 +1012,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4269185532</x:v>
+        <x:v>45912.3425466782</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1035,7 +1044,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.8015656597</x:v>
+        <x:v>45914.9308384259</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1076,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3425466782</x:v>
+        <x:v>45914.9344383102</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9308384259</x:v>
+        <x:v>45907.4205185995</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9344383102</x:v>
+        <x:v>45907.414672338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4205185995</x:v>
+        <x:v>45907.4146327546</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45906.4164278935</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4146327546</x:v>
+        <x:v>45907.4206720718</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4164278935</x:v>
+        <x:v>45906.6645195255</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4206720718</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45914.932571331</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.932571331</x:v>
+        <x:v>45907.4148226852</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45927.4158784722</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4148226852</x:v>
+        <x:v>45927.4150790162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4158784722</x:v>
+        <x:v>45917.325065162</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4150790162</x:v>
+        <x:v>45929.5505609144</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45917.325065162</x:v>
+        <x:v>45927.549187963</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.549187963</x:v>
+        <x:v>45927.5875860764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.5875860764</x:v>
+        <x:v>45921.5535715278</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.5535715278</x:v>
+        <x:v>45929.3838898958</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.7157357292</x:v>
+        <x:v>45929.3249727199</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45907.7157357292</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.933544213</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4231611921</x:v>
+        <x:v>45914.933544213</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.9342146991</x:v>
+        <x:v>45927.4231611921</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45914.9342146991</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS236_Lecture-35047.xlsx
+++ b/downloaded_files/GENS236_Lecture-35047.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Abdalla Saad Elsayed Abdelhamid</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>علي الدين أحمد جمال على عبد المجيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alyeldeen Ahmed Gamal Aly Abdelmegid</x:t>
   </x:si>
   <x:si>
     <x:t>1220186</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1268,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6645195255</x:v>
+        <x:v>45906.6647952546</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6647952546</x:v>
+        <x:v>45907.4199905093</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4199905093</x:v>
+        <x:v>45914.932571331</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.932571331</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45907.4148226852</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4148226852</x:v>
+        <x:v>45927.4158784722</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4158784722</x:v>
+        <x:v>45927.4150790162</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.4150790162</x:v>
+        <x:v>45917.325065162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45917.325065162</x:v>
+        <x:v>45929.5505609144</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45929.5505609144</x:v>
+        <x:v>45927.549187963</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.549187963</x:v>
+        <x:v>45927.5875860764</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.5875860764</x:v>
+        <x:v>45921.5535715278</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.5535715278</x:v>
+        <x:v>45929.3838898958</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45929.3838898958</x:v>
+        <x:v>45906.4149612269</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4149612269</x:v>
+        <x:v>45929.3249727199</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.3249727199</x:v>
+        <x:v>45907.7157357292</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.7157357292</x:v>
+        <x:v>45906.4496525116</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4496525116</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45914.933544213</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.933544213</x:v>
+        <x:v>45927.4231611921</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4231611921</x:v>
+        <x:v>45914.9342146991</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45914.9342146991</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS236_Lecture-35047.xlsx
+++ b/downloaded_files/GENS236_Lecture-35047.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Yara Khaled Gamal Fahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عصام عبدالمنعم احمد منسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>youssef essam abdel monaem ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230187</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.933544213</x:v>
+        <x:v>45927.4231611921</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4231611921</x:v>
+        <x:v>45914.9342146991</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45914.9342146991</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Service Management (GENS236) Location : [20107]20107-45-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
